--- a/요구사항정의서.xlsx
+++ b/요구사항정의서.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\Desktop\개인\개인 프로젝트_협업\요구사항 정의표\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B6536C-F01A-4D91-8C66-C1DA396B450A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -366,10 +360,6 @@
   </si>
   <si>
     <t>1. 계정 연동 기능 설정  (카카오 / 네이버)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -606,11 +596,15 @@
     <t>1. 고객센터 문의내역 목록 및 답변 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -890,6 +884,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,49 +962,13 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1283,139 +1277,148 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="11" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="6" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="6" t="s">
+      <c r="D5" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:M2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="J5:K5"/>
@@ -1424,15 +1427,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1440,638 +1434,641 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="32">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="34.799999999999997">
-      <c r="A2" s="23">
+    <row r="2" spans="1:10" ht="34">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="24">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="23" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" ht="34.799999999999997">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="29" t="s">
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="34">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="13" t="s">
         <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="23">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="29" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" ht="156.6">
-      <c r="A7" s="23">
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="153">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" ht="208.8">
-      <c r="A8" s="23">
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="204">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" ht="121.8">
-      <c r="A9" s="23">
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="119">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>72</v>
+      <c r="F9" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" ht="52.2">
-      <c r="A10" s="23">
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="51">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="30" t="s">
-        <v>73</v>
+      <c r="E10" s="33"/>
+      <c r="F10" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" ht="69.599999999999994">
-      <c r="A11" s="23">
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="68">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="31" t="s">
-        <v>74</v>
+      <c r="E11" s="33"/>
+      <c r="F11" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23" t="s">
+      <c r="G12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="51">
+      <c r="A13" s="33">
+        <v>9</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="23"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="1:10" ht="52.2">
-      <c r="A13" s="24">
-        <v>9</v>
-      </c>
-      <c r="B13" s="25" t="s">
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="64">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="D15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="112">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23" t="s">
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="48">
+      <c r="A17" s="9">
+        <v>12</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" ht="62.4">
-      <c r="A15" s="23">
-        <v>10</v>
-      </c>
-      <c r="B15" s="28" t="s">
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="128">
+      <c r="A18" s="9">
+        <v>13</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:10" ht="109.2">
-      <c r="A16" s="23">
-        <v>11</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="24" t="s">
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>93</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10" ht="46.8">
-      <c r="A17" s="23">
-        <v>12</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" ht="124.8">
-      <c r="A18" s="23">
-        <v>13</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" ht="144">
+      <c r="A19" s="9">
+        <v>14</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" ht="140.4">
-      <c r="A19" s="23">
-        <v>14</v>
-      </c>
-      <c r="B19" s="28" t="s">
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" ht="63.5" customHeight="1">
+      <c r="A20" s="9">
+        <v>15</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23" t="s">
+      <c r="D20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" ht="63.45" customHeight="1">
-      <c r="A20" s="23">
-        <v>15</v>
-      </c>
-      <c r="B20" s="28" t="s">
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="87.65" customHeight="1">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:10" ht="87.6" customHeight="1">
-      <c r="A21" s="23">
-        <v>16</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="31" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="15" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="23">
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="23" customHeight="1">
+      <c r="A22" s="9">
         <v>17</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="32" t="s">
+      <c r="E22" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="29" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="1:10" ht="34.799999999999997">
-      <c r="A23" s="23">
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="34">
+      <c r="A23" s="9">
         <v>18</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="G23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="34">
+      <c r="A24" s="9">
+        <v>19</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="33" t="s">
+      <c r="G24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="1:10" ht="34.799999999999997">
-      <c r="A24" s="23">
-        <v>19</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="23"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10">
       <c r="G25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="D3:D5"/>
@@ -2088,9 +2085,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항정의서.xlsx
+++ b/요구사항정의서.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
     <sheet name="요구사항" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,10 +146,6 @@
   </si>
   <si>
     <t>좌석 미리보기 화면 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화관 위치 안내 화면 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -375,23 +366,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영화 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무비차트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HD 트레일러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무비파인더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화 검색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -417,88 +392,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. ㄱ~ㅎ,  A~Z 문자별로 영화 검색이 가능하다.
-2. 조회조건에 제목을 직접 입력하여 검색한다.
-3. 검색은 일부 제목만 입력해도 그를 포함한 결과가 나오도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 문자별, 인기도별로 정렬하는 기능을 추가한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당 영화의 이미지, 줄거리 등을 소개한다.
-2. 영화의 상영 시간, 상영관등 상영일정을 소개한다.
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 영화의 PV 와 같이 간략한 동영상을 보여준다.
-4. 영화를 시청한 사람들에 대한 반응을 댓글 및 좋아요 수 등으로 표시해준다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. ㄱ~ㅎ,  A~Z 문자별로 영화 검색이 가능하다.
-2. 조회조건에 제목을 직접 입력하여 검색한다.
-3. 검색은 일부 제목만 입력해도 그를 포함한 결과가 나오도록 한다.
-4. 조회조건에 상영시간을 선택하여 검색한다.
-5. 조회조건에 영화관을 선택한 후 상영시간을 선택하여 검색한다.
-6. 남는 좌석이 없거나 상영이 끝난 영화, 일정등을 목록에 표기한다.
-7. 여러 테마별 검색 기능을 추가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 화면에 지역별, ㄱ~ㅎ 순으로 전체 지점을 보여준다.
-2. 지점명 선택 시 화면 하단에 지도로 위치 표기가 된다.
-3. 길찾기 버튼을 추가하여 해당 버튼을 클릭하면 길찾기를 할 수 있도록 한다.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -600,12 +494,341 @@
     <t>메인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>무비차트
+(무비파인더)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>￮ ㄱ~ㅎ,  A~Z 문자별로 영화 검색이 가능하다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+￮ 조회조건에 검색어 직접 입력하여 검색한다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>￮ 검색어 조건은 제목, 배우, 감독 등을 선택 할 수 있다.
+￮ 조회 조건에 장르, 제작국가, 관람등급을 선택할 수 있도록 한다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+￮ 검색은 일부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 단어만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 입력해도 그를 포함한 결과가 나오도록 한다.
+￮ 조회조건에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제작년도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 선택하여 검색한다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+￮ 남는 좌석이 없거나 상영이 끝난 영화, 일정등을 목록에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아이콘이나 텍스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 표기한다.
+￮ 영화명 클릭 시 해당 영화의 상세 화면으로 이동된다.
+￮ 문자별, 인기도별로 정렬하는 기능을 추가한다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>￮ 바로 예매가 가능하도록 예매 버튼을 추가한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 상세화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￮ 영화를 시청한 사람들에 대한 반응을 댓글 및 좋아요 수 등으로 표시해준다.
+￮ 평점 및 코멘트에 대해 최신순, 혹은 평점순으로 나열한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￮ 상영 예정작의 트레일러를 소개한다.
+￮ 상영이 시작되면 상영 예정작 탭에서 트레일러를 비노출 시키고, 예매 가능작 탭에 트레일러를 노출시킨다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>￮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 화면에 지역별, ㄱ~ㅎ 순으로 전체 지점을 보여준다.
+￮ 지점명 선택 시 화면 하단에 지도로 위치 표기가 된다.
+￮ 길찾기 버튼을 추가하여 해당 버튼을 클릭하면 길찾기를 할 수 있도록 한다.</t>
+    </r>
+  </si>
+  <si>
+    <t>영화관 위치 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEQ-17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>￮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">해당 영화의 이미지, 줄거리 등을 소개한다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>￮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 영화의 상영 시간, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장르, 개봉일, 예매율 등 기본 정보를 소개한다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">￮ 영화의 PV 와 같이 간략한 동영상을 보여준다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>￮ 예매를 한 사람들의 연령대와 성별을 그래프로 표기한다.
+￮ 현재 상영중인 영화관을 확인 가능하다.
+￮ 예매화면 바로가기가 가능하다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 추가 및 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +913,37 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -865,7 +1119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,6 +1174,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,14 +1246,17 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,9 +1267,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1277,7 +1561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1285,131 +1569,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="23" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="23"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="18" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="18" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="19"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="18" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="18" t="s">
+      <c r="K4" s="29"/>
+      <c r="L4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="19"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="18" t="s">
+      <c r="D5" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="18" t="s">
+      <c r="K5" s="29"/>
+      <c r="L5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="19"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="21">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="J3:K3"/>
@@ -1419,14 +1740,6 @@
     <mergeCell ref="D1:I2"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="L1:M2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1437,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E11"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1467,7 +1780,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>20</v>
@@ -1499,7 +1812,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>27</v>
@@ -1509,47 +1822,47 @@
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="33">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
@@ -1558,16 +1871,16 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="34">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
@@ -1586,16 +1899,16 @@
         <v>25</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="13" t="s">
@@ -1614,14 +1927,14 @@
         <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="33"/>
+        <v>56</v>
+      </c>
+      <c r="E7" s="42"/>
       <c r="F7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
@@ -1640,14 +1953,14 @@
         <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="33"/>
+        <v>57</v>
+      </c>
+      <c r="E8" s="42"/>
       <c r="F8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
@@ -1666,16 +1979,16 @@
         <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
@@ -1694,11 +2007,11 @@
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="33"/>
+        <v>59</v>
+      </c>
+      <c r="E10" s="42"/>
       <c r="F10" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>2</v>
@@ -1720,14 +2033,14 @@
         <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="33"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="42"/>
       <c r="F11" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
@@ -1742,36 +2055,36 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="17" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="51">
-      <c r="A13" s="33">
+    <row r="13" spans="1:10" ht="85">
+      <c r="A13" s="42">
         <v>9</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>85</v>
+      <c r="D13" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
@@ -1779,17 +2092,17 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>86</v>
+    <row r="14" spans="1:10" ht="102">
+      <c r="A14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
@@ -1797,7 +2110,7 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="64">
+    <row r="15" spans="1:10" ht="34">
       <c r="A15" s="9">
         <v>10</v>
       </c>
@@ -1808,16 +2121,16 @@
         <v>25</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
@@ -1825,27 +2138,27 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="112">
+    <row r="16" spans="1:10" ht="96">
       <c r="A16" s="9">
         <v>11</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>78</v>
+      <c r="D16" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>96</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
@@ -1853,19 +2166,19 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="48">
+    <row r="17" spans="1:10" ht="32">
       <c r="A17" s="9">
         <v>12</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
@@ -1884,16 +2197,16 @@
         <v>25</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>93</v>
+        <v>35</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
@@ -1912,14 +2225,14 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E19" s="42"/>
       <c r="F19" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
@@ -1938,16 +2251,16 @@
         <v>25</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
@@ -1966,14 +2279,14 @@
         <v>25</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="E21" s="42"/>
       <c r="F21" s="15" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
@@ -1992,13 +2305,13 @@
         <v>25</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2018,16 +2331,16 @@
         <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="17" t="s">
@@ -2046,14 +2359,14 @@
         <v>25</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="32"/>
+        <v>40</v>
+      </c>
+      <c r="E24" s="43"/>
       <c r="F24" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="17" t="s">
@@ -2061,11 +2374,32 @@
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10">
-      <c r="G25" s="1"/>
+    <row r="25" spans="1:10" ht="48">
+      <c r="A25" s="19">
+        <v>20</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E20:E21"/>
@@ -2084,7 +2418,6 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항정의서.xlsx
+++ b/요구사항정의서.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\Desktop\개인\개인 프로젝트_협업\요구사항 정의표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\Desktop\개인\개인 프로젝트_협업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B6536C-F01A-4D91-8C66-C1DA396B450A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01553F1B-7DE9-407D-9057-5027410A058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
     <sheet name="요구사항" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,10 +152,6 @@
   </si>
   <si>
     <t>좌석 미리보기 화면 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화관 위치 안내 화면 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -347,32 +338,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. A pc로 로그인 후 B pc로 다시 로그인 할 경우 A pc는 자동 로그아웃 처리
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 동일 pc 에서 새로운 창을 열어 로그인 할 경우 로그인이 유지되도록 처리</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 계정 연동 기능 설정  (카카오 / 네이버)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제이력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,36 +354,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영화 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무비차트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HD 트레일러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무비파인더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠른예매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예매 다시하기 기능 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 예매 다시하기를 누르면 선택한 항목들이 초기화 됨
-2. 이 기능을 변경하여 하위 항목을 선택한 후에 상위 항목을 재선택하면 이전의 하위 항목들은 모두 리셋되도록 기능 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -427,88 +371,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. ㄱ~ㅎ,  A~Z 문자별로 영화 검색이 가능하다.
-2. 조회조건에 제목을 직접 입력하여 검색한다.
-3. 검색은 일부 제목만 입력해도 그를 포함한 결과가 나오도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 문자별, 인기도별로 정렬하는 기능을 추가한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당 영화의 이미지, 줄거리 등을 소개한다.
-2. 영화의 상영 시간, 상영관등 상영일정을 소개한다.
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 영화의 PV 와 같이 간략한 동영상을 보여준다.
-4. 영화를 시청한 사람들에 대한 반응을 댓글 및 좋아요 수 등으로 표시해준다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. ㄱ~ㅎ,  A~Z 문자별로 영화 검색이 가능하다.
-2. 조회조건에 제목을 직접 입력하여 검색한다.
-3. 검색은 일부 제목만 입력해도 그를 포함한 결과가 나오도록 한다.
-4. 조회조건에 상영시간을 선택하여 검색한다.
-5. 조회조건에 영화관을 선택한 후 상영시간을 선택하여 검색한다.
-6. 남는 좌석이 없거나 상영이 끝난 영화, 일정등을 목록에 표기한다.
-7. 여러 테마별 검색 기능을 추가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 화면에 지역별, ㄱ~ㅎ 순으로 전체 지점을 보여준다.
-2. 지점명 선택 시 화면 하단에 지도로 위치 표기가 된다.
-3. 길찾기 버튼을 추가하여 해당 버튼을 클릭하면 길찾기를 할 수 있도록 한다.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -579,11 +442,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. 화면 진입 시 비밀번호 입력 후 회원정보 수정 가능 하도록 관리용 화면 추가
+    <t>문의내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 고객센터 문의내역 목록 및 답변 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무비차트
+(무비파인더)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 상세화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￮ 영화를 시청한 사람들에 대한 반응을 댓글 및 좋아요 수 등으로 표시해준다.
+￮ 평점 및 코멘트에 대해 최신순, 혹은 평점순으로 나열한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEQ-17</t>
+  </si>
+  <si>
+    <t>2021-08-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 추가 및 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. A pc로 로그인 후 B pc로 다시 로그인 할 경우 A pc는 자동 로그아웃 처리
+2. 동일 pc 에서 새로운 창을 열어 로그인 할 경우 로그인이 유지되도록 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>￮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">해당 영화의 이미지, 줄거리 등을 소개한다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>￮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 영화의 상영 시간, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장르, 개봉일, 예매율 등 기본 정보를 소개한다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>￮ 영화의 PV 와 같이 간략한 동영상을 보여준다.
+￮ 예매를 한 사람들의 연령대와 성별을 그래프로 표기한다.
+￮ 현재 상영중인 영화관을 확인 가능하다.
+￮ 예매화면 바로가기가 가능하다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 화면 진입 시 비밀번호 입력 후 회원정보 수정 가능 하도록 관리용 화면 추가
 2. 이메일, 전화번호, 주소 등의 정보를 수정
 3. 수정 완료 후 내정보 메인 탭으로 이동
-</t>
+4. 닉네임 수정 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영예정작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￮ 상영예정작 / CGV 아트하우스 탭 제거
+￮ 현재 상영작만 보기 우측에 상영예정작만 보기 체크박스 및 조회기능추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 예매 다시하기를 누르면 선택한 항목들이 초기화 됨
+2. 이 기능을 변경하여 하위 항목을 선택한 후에 상위 항목을 재선택하면 이전의 하위 항목들은 모두 리셋되도록 기능 수정
+3. 예매 다시하기 버튼 제거</t>
+  </si>
+  <si>
+    <r>
+      <t>￮ 조회조건에 검색어 직접 입력하여 검색한다.
+￮ 검색어 조건은 제목, 배우, 감독 등을 선택 할 수 있다.
+￮ 조회 조건에 장르, 제작국가, 관람등급을 선택할 수 있도록 한다.
+￮ 검색은 일부 단어만 입력해도 그를 포함한 결과가 나오도록 한다.
+￮ 조회조건에 제작년도를 선택하여 검색한다.</t>
     </r>
     <r>
       <rPr>
@@ -594,16 +623,130 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4. 닉네임 수정 가능</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 고객센터 문의내역 목록 및 답변 확인</t>
+      <t xml:space="preserve">
+￮ 우측상단에 무비차트 / 상영예정작 / CGV 아트하우스 탭 및 문구를 삭제한다.
+￮ 검색 기능은 무비차트 / 상영예정작 / CGV 아트하우스 탭 위치에 추가한다.
+￮ 인기 트레이러 / 실시간 인기 검색어 부분 제거</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">￮ 남는 좌석이 없거나 상영이 끝난 영화, 일정등을 목록에 아이콘이나 텍스트로 표기한다.
+￮ 영화명 클릭 시 해당 영화의 상세 화면으로 이동된다.
+￮ 문자별, 인기도별로 정렬하는 기능을 추가한다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">￮ 정렬조건을 이름순, 인기순(평점순), 예매순으로 하고 GO 버튼을 제거하여 셀렉트 박스 클릭 시 자동 조회되도록 한다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+￮ 바로 예매가 가능하도록 예매 버튼을 추가한다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">￮ 상영 예정작의 트레일러를 소개한다.
+￮ 상영이 시작되면 상영 예정작 탭에서 트레일러를 비노출 시키고, 예매 가능작 탭에 트레일러를 노출시킨다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>￮ 상단에 노출되는 동영상 화면을 제거한다.
+￮ 검색 기능은 일부 단어만 입력해도 해당 단어를 포함한 목록이 조회되도록 한다.
+￮ select 박스 기능은 그대로 유지한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGV 극장</t>
+  </si>
+  <si>
+    <t>CGV 극장_목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>￮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 화면에 지역별, ㄱ~ㅎ 순으로 전체 지점을 보여준다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>￮ 지점명 선택 시 화면 하단에 해당 지점의 상영 일정을 보여준다.
+￮ 자주가는 CGV 등록한다 - 즐겨찾기
+  - 팝업 화면에서 지점 등록</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGV 극장_위치 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">￮ 지점명 선택 시 화면 하단에 지도로 위치 표기가 된다.
+￮ 길찾기 버튼을 추가하여 해당 버튼을 클릭하면 길찾기를 할 수 있도록 한다.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 구현 가능한 부분인지 확인 필요</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,14 +818,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -695,6 +830,35 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -871,24 +1035,114 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -905,77 +1159,32 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1037,7 +1246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1089,7 +1298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1291,131 +1500,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="11" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="37"/>
+      <c r="L3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6" t="s">
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="6" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="37"/>
+      <c r="L4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6" t="s">
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="6" t="s">
+      <c r="D5" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="21">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="J5:K5"/>
@@ -1424,15 +1662,15 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:I2"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="L1:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1441,13 +1679,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
@@ -1459,638 +1697,692 @@
     <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="34.799999999999997">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="42"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="42"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="208.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="87" x14ac:dyDescent="0.4">
+      <c r="A13" s="42">
+        <v>9</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" ht="87" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="124.8" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="140.4" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="63.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="87.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>18</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
+        <v>19</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="24">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="E26" s="42"/>
+      <c r="F26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="16">
+        <v>20</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" ht="34.799999999999997">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="23">
-        <v>3</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" ht="156.6">
-      <c r="A7" s="23">
-        <v>4</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" ht="208.8">
-      <c r="A8" s="23">
-        <v>5</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" ht="121.8">
-      <c r="A9" s="23">
-        <v>6</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" ht="52.2">
-      <c r="A10" s="23">
-        <v>7</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" ht="69.599999999999994">
-      <c r="A11" s="23">
-        <v>8</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="23"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="1:10" ht="52.2">
-      <c r="A13" s="24">
-        <v>9</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" ht="62.4">
-      <c r="A15" s="23">
-        <v>10</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:10" ht="109.2">
-      <c r="A16" s="23">
-        <v>11</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10" ht="46.8">
-      <c r="A17" s="23">
-        <v>12</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" ht="124.8">
-      <c r="A18" s="23">
-        <v>13</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="24" t="s">
+      <c r="D27" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" ht="140.4">
-      <c r="A19" s="23">
-        <v>14</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" ht="63.45" customHeight="1">
-      <c r="A20" s="23">
-        <v>15</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:10" ht="87.6" customHeight="1">
-      <c r="A21" s="23">
-        <v>16</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="23">
-        <v>17</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="1:10" ht="34.799999999999997">
-      <c r="A23" s="23">
-        <v>18</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="E27" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="1:10" ht="34.799999999999997">
-      <c r="A24" s="23">
-        <v>19</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="F27" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="G25" s="1"/>
+      <c r="G27" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E19:E22"/>
     <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항정의서.xlsx
+++ b/요구사항정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\Desktop\개인\개인 프로젝트_협업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01553F1B-7DE9-407D-9057-5027410A058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ED4537-ED24-4A8A-A53B-D64BCA9D92A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,10 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요구사항 추가 및 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -749,12 +745,20 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,7 +1039,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1117,6 +1121,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1144,47 +1169,29 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,156 +1507,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="27" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="27"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="36" t="s">
+      <c r="M1" s="34"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="36" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="36" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="37"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="36" t="s">
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="36" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="36" t="s">
+      <c r="K4" s="30"/>
+      <c r="L4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="36" t="s">
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="36" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="36" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="37"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="36" t="s">
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="36" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="36" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="37"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="C7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="30"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="C8" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="J6:K6"/>
@@ -1658,19 +1705,6 @@
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1681,11 +1715,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
@@ -1697,7 +1731,7 @@
     <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="31.2">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -1729,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="34.799999999999997">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1757,20 +1791,20 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="42">
+    <row r="3" spans="1:10">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="47" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -1783,12 +1817,12 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="44"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="13" t="s">
         <v>67</v>
       </c>
@@ -1801,17 +1835,17 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A5" s="42"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+    <row r="5" spans="1:10" ht="34.799999999999997">
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="13" t="s">
         <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
@@ -1819,7 +1853,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1832,7 +1866,7 @@
       <c r="D6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="47" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -1847,7 +1881,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="156.6">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1860,7 +1894,7 @@
       <c r="D7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="13" t="s">
         <v>52</v>
       </c>
@@ -1873,7 +1907,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="208.8">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1886,7 +1920,7 @@
       <c r="D8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="13" t="s">
         <v>53</v>
       </c>
@@ -1899,7 +1933,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="121.8">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1912,7 +1946,7 @@
       <c r="D9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="44" t="s">
         <v>63</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1927,7 +1961,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="52.2">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1940,7 +1974,7 @@
       <c r="D10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="42"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="12" t="s">
         <v>70</v>
       </c>
@@ -1953,7 +1987,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="69.599999999999994">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1966,12 +2000,12 @@
       <c r="D11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="13" t="s">
         <v>71</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
@@ -1979,7 +2013,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1995,27 +2029,27 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="87" x14ac:dyDescent="0.4">
-      <c r="A13" s="42">
+    <row r="13" spans="1:10" ht="87">
+      <c r="A13" s="44">
         <v>9</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="48" t="s">
         <v>88</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>89</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
@@ -2023,17 +2057,17 @@
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="42"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="45"/>
+    <row r="14" spans="1:10" ht="139.19999999999999">
+      <c r="A14" s="44"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="15" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
@@ -2041,23 +2075,23 @@
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="34.799999999999997">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="45"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>102</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" ht="87" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="87">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -2077,7 +2111,7 @@
         <v>91</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
@@ -2085,27 +2119,27 @@
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" ht="93.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="93.6">
       <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="44" t="s">
         <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
@@ -2113,14 +2147,14 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="31.2">
       <c r="A18" s="7">
         <v>12</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
@@ -2133,7 +2167,7 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="124.8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="124.8">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -2146,7 +2180,7 @@
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="45" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -2161,7 +2195,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="140.4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="140.4">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -2174,7 +2208,7 @@
       <c r="D20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="4" t="s">
         <v>82</v>
       </c>
@@ -2187,7 +2221,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="63.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="63.45" customHeight="1">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -2200,12 +2234,12 @@
       <c r="D21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="46"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
@@ -2213,7 +2247,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="87.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="87.6" customHeight="1">
       <c r="A22" s="7">
         <v>16</v>
       </c>
@@ -2226,7 +2260,7 @@
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="13" t="s">
         <v>75</v>
       </c>
@@ -2239,27 +2273,27 @@
       </c>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="62.4">
       <c r="A23" s="7">
         <v>17</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="G23" s="28" t="s">
         <v>108</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>109</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="11" t="s">
@@ -2267,17 +2301,17 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="52.2">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="47" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="26" t="s">
         <v>110</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>111</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="11" t="s">
@@ -2285,7 +2319,7 @@
       </c>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="69.599999999999994">
       <c r="A25" s="7">
         <v>18</v>
       </c>
@@ -2298,7 +2332,7 @@
       <c r="D25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="44" t="s">
         <v>72</v>
       </c>
       <c r="F25" s="13" t="s">
@@ -2313,7 +2347,7 @@
       </c>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="69.599999999999994">
       <c r="A26" s="7">
         <v>19</v>
       </c>
@@ -2326,7 +2360,7 @@
       <c r="D26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="13" t="s">
         <v>30</v>
       </c>
@@ -2339,7 +2373,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10">
       <c r="A27" s="16">
         <v>20</v>
       </c>
@@ -2362,27 +2396,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
